--- a/lda2vec works/lda2vec-20-filtered.xlsx
+++ b/lda2vec works/lda2vec-20-filtered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="752">
   <si>
     <t>id</t>
   </si>
@@ -1930,739 +1930,346 @@
     <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>price|rice|time|place</t>
-  </si>
-  <si>
-    <t>price|rice|view|high|going|food</t>
-  </si>
-  <si>
-    <t>price|rice|high|food</t>
-  </si>
-  <si>
-    <t>price|rice|food</t>
-  </si>
-  <si>
-    <t>price|rice|high|would|food</t>
-  </si>
-  <si>
-    <t>place|value</t>
-  </si>
-  <si>
-    <t>price|rice|flavorful|food</t>
+    <t>price|place</t>
+  </si>
+  <si>
+    <t>high|price|food|going|view</t>
+  </si>
+  <si>
+    <t>high|price|food</t>
+  </si>
+  <si>
+    <t>price|food</t>
+  </si>
+  <si>
+    <t>high|price|food|would</t>
+  </si>
+  <si>
+    <t>value|place</t>
+  </si>
+  <si>
+    <t>price|flavorful|food</t>
   </si>
   <si>
     <t>atmosphere|casual</t>
   </si>
   <si>
-    <t>price|rice</t>
+    <t>price</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>price|rice|high</t>
-  </si>
-  <si>
-    <t>price|rice|service|food</t>
-  </si>
-  <si>
-    <t>pizza|place|service</t>
-  </si>
-  <si>
-    <t>price|rice|absolutely|moderate</t>
-  </si>
-  <si>
-    <t>staff|place</t>
-  </si>
-  <si>
-    <t>portion|food</t>
-  </si>
-  <si>
-    <t>time|food</t>
-  </si>
-  <si>
-    <t>price|rice|service</t>
-  </si>
-  <si>
-    <t>ever|decor|thing|service</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>ever|thai|thing|food</t>
-  </si>
-  <si>
-    <t>moderate|special|thing</t>
-  </si>
-  <si>
-    <t>ever|never|tasty</t>
-  </si>
-  <si>
-    <t>place|decor</t>
+    <t>high|price</t>
+  </si>
+  <si>
+    <t>service|price|food</t>
+  </si>
+  <si>
+    <t>service|place|pizza</t>
+  </si>
+  <si>
+    <t>price|absolutely</t>
+  </si>
+  <si>
+    <t>place|staff</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>food|always</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>service|price</t>
+  </si>
+  <si>
+    <t>service|always</t>
+  </si>
+  <si>
+    <t>place|really</t>
   </si>
   <si>
     <t>service</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>ever|service</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>restaurant|sushi</t>
-  </si>
-  <si>
-    <t>portion|sushi</t>
-  </si>
-  <si>
-    <t>rice|fish</t>
-  </si>
-  <si>
-    <t>price|rice|sushi</t>
+    <t>sushi|restaurant</t>
+  </si>
+  <si>
+    <t>sushi</t>
+  </si>
+  <si>
+    <t>price|sushi</t>
   </si>
   <si>
     <t>service|food</t>
   </si>
   <si>
-    <t>ever|menu</t>
-  </si>
-  <si>
-    <t>tasty|food</t>
+    <t>menu</t>
   </si>
   <si>
     <t>dish</t>
   </si>
   <si>
-    <t>time|service</t>
-  </si>
-  <si>
-    <t>ambience|casual|would</t>
-  </si>
-  <si>
-    <t>ever|view</t>
-  </si>
-  <si>
-    <t>price|rice|even|service|food</t>
+    <t>casual|would</t>
+  </si>
+  <si>
+    <t>view</t>
   </si>
   <si>
     <t>restaurant</t>
   </si>
   <si>
-    <t>pizza|cheese|even</t>
-  </si>
-  <si>
-    <t>price|pizza|rice</t>
-  </si>
-  <si>
-    <t>pizza|even</t>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>price|pizza</t>
   </si>
   <si>
     <t>meal</t>
   </si>
   <si>
-    <t>ever|wine|menu|food</t>
-  </si>
-  <si>
-    <t>ever|portion</t>
-  </si>
-  <si>
-    <t>ever|never|staff</t>
-  </si>
-  <si>
-    <t>portion|decor|service|food</t>
+    <t>food|menu|always</t>
+  </si>
+  <si>
+    <t>dish|really</t>
+  </si>
+  <si>
+    <t>always|staff</t>
   </si>
   <si>
     <t>place</t>
   </si>
   <si>
-    <t>time|place|wine|service|food</t>
-  </si>
-  <si>
-    <t>wait|would</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>pizza</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>wait|food</t>
-  </si>
-  <si>
-    <t>pizza|service</t>
-  </si>
-  <si>
-    <t>sushi</t>
-  </si>
-  <si>
-    <t>place|food</t>
-  </si>
-  <si>
-    <t>price|rice|atmosphere</t>
-  </si>
-  <si>
-    <t>view|food</t>
-  </si>
-  <si>
-    <t>high|special|service</t>
+    <t>service|food|place|always</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>service|pizza</t>
+  </si>
+  <si>
+    <t>food|place</t>
+  </si>
+  <si>
+    <t>price|atmosphere</t>
+  </si>
+  <si>
+    <t>food|view</t>
+  </si>
+  <si>
+    <t>high|service</t>
   </si>
   <si>
     <t>staff</t>
   </si>
   <si>
-    <t>ever|special</t>
-  </si>
-  <si>
-    <t>atmosphere|even</t>
-  </si>
-  <si>
-    <t>pizza|cheese</t>
+    <t>atmosphere</t>
   </si>
   <si>
     <t>menu|would</t>
   </si>
   <si>
-    <t>staff|wait</t>
-  </si>
-  <si>
-    <t>restaurant|salad|food</t>
-  </si>
-  <si>
-    <t>cheese|service</t>
-  </si>
-  <si>
-    <t>bagel|would</t>
-  </si>
-  <si>
-    <t>restaurant|even</t>
-  </si>
-  <si>
-    <t>ever|decor</t>
-  </si>
-  <si>
-    <t>atmosphere|time|salad</t>
-  </si>
-  <si>
-    <t>made|food</t>
-  </si>
-  <si>
-    <t>drink|food</t>
-  </si>
-  <si>
-    <t>place|made|decor</t>
-  </si>
-  <si>
-    <t>made|dish|food</t>
-  </si>
-  <si>
-    <t>bagel</t>
-  </si>
-  <si>
-    <t>bagel|cheese|absolutely</t>
-  </si>
-  <si>
-    <t>time|service|food</t>
+    <t>food|restaurant</t>
+  </si>
+  <si>
+    <t>restaurant|always</t>
+  </si>
+  <si>
+    <t>food|really</t>
+  </si>
+  <si>
+    <t>food|dish</t>
+  </si>
+  <si>
+    <t>absolutely</t>
   </si>
   <si>
     <t>high</t>
   </si>
   <si>
-    <t>pizza|fish|salad</t>
-  </si>
-  <si>
-    <t>ambience|high|service|food</t>
-  </si>
-  <si>
-    <t>staff|absolutely</t>
-  </si>
-  <si>
-    <t>ever|thing</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>fish|special</t>
-  </si>
-  <si>
-    <t>atmosphere</t>
-  </si>
-  <si>
-    <t>ambience</t>
-  </si>
-  <si>
-    <t>ever|menu|going|food</t>
-  </si>
-  <si>
-    <t>atmosphere|wait|thing</t>
-  </si>
-  <si>
-    <t>price|rice|dish</t>
-  </si>
-  <si>
-    <t>cheese|salad|tasty</t>
-  </si>
-  <si>
-    <t>time|dish</t>
-  </si>
-  <si>
-    <t>staff|place|absolutely|food</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>atmosphere|place|dish|wine</t>
-  </si>
-  <si>
-    <t>pizza|place</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>pizza|made</t>
-  </si>
-  <si>
-    <t>ambience|service</t>
-  </si>
-  <si>
-    <t>time|view|restaurant|service|food</t>
+    <t>high|service|food</t>
+  </si>
+  <si>
+    <t>absolutely|staff</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>sushi|really</t>
+  </si>
+  <si>
+    <t>food|menu|going</t>
+  </si>
+  <si>
+    <t>price|dish</t>
+  </si>
+  <si>
+    <t>food|place|absolutely|staff</t>
+  </si>
+  <si>
+    <t>atmosphere|place|dish</t>
+  </si>
+  <si>
+    <t>place|pizza</t>
+  </si>
+  <si>
+    <t>service|food|restaurant|view</t>
   </si>
   <si>
     <t>place|meal</t>
   </si>
   <si>
-    <t>ever|place</t>
-  </si>
-  <si>
-    <t>pizza|place|made|wine|service</t>
-  </si>
-  <si>
-    <t>ever|place|restaurant</t>
+    <t>service|place|really|pizza</t>
+  </si>
+  <si>
+    <t>place|restaurant</t>
   </si>
   <si>
     <t>place|view</t>
   </si>
   <si>
-    <t>made|meal</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>ever|never|fish|service</t>
-  </si>
-  <si>
-    <t>place|service</t>
-  </si>
-  <si>
-    <t>atmosphere|restaurant|thing|service|food</t>
-  </si>
-  <si>
-    <t>staff|meal|menu|service</t>
+    <t>service|place</t>
+  </si>
+  <si>
+    <t>service|atmosphere|food|restaurant</t>
+  </si>
+  <si>
+    <t>service|menu|meal|staff</t>
   </si>
   <si>
     <t>restaurant|meal</t>
   </si>
   <si>
-    <t>view|service</t>
-  </si>
-  <si>
-    <t>staff|service</t>
-  </si>
-  <si>
-    <t>portion</t>
-  </si>
-  <si>
-    <t>wine|menu|special|food</t>
-  </si>
-  <si>
-    <t>price|rice|menu|food</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>ever|never|restaurant</t>
-  </si>
-  <si>
-    <t>wait|service|food</t>
-  </si>
-  <si>
-    <t>sushi|service</t>
-  </si>
-  <si>
-    <t>cheese|salad</t>
-  </si>
-  <si>
-    <t>restaurant|food</t>
-  </si>
-  <si>
-    <t>atmosphere|sushi|special|thing</t>
-  </si>
-  <si>
-    <t>ever|menu|thing|food</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>wine|service</t>
-  </si>
-  <si>
-    <t>ever|never|dish|menu|special|food</t>
-  </si>
-  <si>
-    <t>price|rice|wine|food</t>
-  </si>
-  <si>
-    <t>ever|time|value|service|food</t>
-  </si>
-  <si>
-    <t>ever|wait|thing</t>
-  </si>
-  <si>
-    <t>decor|service</t>
-  </si>
-  <si>
-    <t>ever|sushi</t>
-  </si>
-  <si>
-    <t>rice|fish|menu</t>
-  </si>
-  <si>
-    <t>rice|fish|even|thing</t>
-  </si>
-  <si>
-    <t>would|thing</t>
-  </si>
-  <si>
-    <t>atmosphere|drink|food</t>
-  </si>
-  <si>
-    <t>price|rice|thai</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>portion|tasty|food</t>
-  </si>
-  <si>
-    <t>dish|menu</t>
-  </si>
-  <si>
-    <t>price|rice|even|high|food</t>
-  </si>
-  <si>
-    <t>special|service|food</t>
-  </si>
-  <si>
-    <t>thai|place|view|food</t>
-  </si>
-  <si>
-    <t>ever|food</t>
+    <t>service|view</t>
+  </si>
+  <si>
+    <t>service|staff</t>
+  </si>
+  <si>
+    <t>food|menu</t>
+  </si>
+  <si>
+    <t>price|food|menu</t>
+  </si>
+  <si>
+    <t>service|sushi</t>
+  </si>
+  <si>
+    <t>atmosphere|sushi</t>
+  </si>
+  <si>
+    <t>food|menu|dish</t>
+  </si>
+  <si>
+    <t>service|value|food</t>
+  </si>
+  <si>
+    <t>atmosphere|food</t>
+  </si>
+  <si>
+    <t>menu|dish</t>
+  </si>
+  <si>
+    <t>food|place|view</t>
   </si>
   <si>
     <t>atmosphere|view|would</t>
   </si>
   <si>
-    <t>ever|wait|thing|service</t>
-  </si>
-  <si>
-    <t>salad|meal</t>
-  </si>
-  <si>
-    <t>decor</t>
-  </si>
-  <si>
-    <t>price|rice|ambience|tasty|food</t>
-  </si>
-  <si>
-    <t>thai|would</t>
-  </si>
-  <si>
-    <t>ever|restaurant|service</t>
-  </si>
-  <si>
-    <t>atmosphere|dish|service</t>
-  </si>
-  <si>
-    <t>drink|ever|staff|thing|food</t>
-  </si>
-  <si>
-    <t>ever|staff|wait</t>
-  </si>
-  <si>
-    <t>staff|time|made|wait</t>
-  </si>
-  <si>
-    <t>high|service</t>
-  </si>
-  <si>
-    <t>ever|made|thing</t>
-  </si>
-  <si>
-    <t>staff|meal</t>
-  </si>
-  <si>
-    <t>dish|food</t>
-  </si>
-  <si>
-    <t>dish|tasty|food</t>
-  </si>
-  <si>
-    <t>ever|cheese</t>
-  </si>
-  <si>
-    <t>would|food</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>place|restaurant|food</t>
-  </si>
-  <si>
-    <t>time|dish|food</t>
-  </si>
-  <si>
-    <t>thai|place</t>
-  </si>
-  <si>
-    <t>pizza|ever|never|cheese</t>
-  </si>
-  <si>
-    <t>ever|portion|even</t>
-  </si>
-  <si>
-    <t>menu|service|food</t>
-  </si>
-  <si>
-    <t>ever|dish|tasty</t>
-  </si>
-  <si>
-    <t>ever|sushi|special</t>
-  </si>
-  <si>
-    <t>thai|food</t>
-  </si>
-  <si>
-    <t>drink|dish|thing|food</t>
-  </si>
-  <si>
-    <t>fish|menu</t>
-  </si>
-  <si>
-    <t>price|pizza|rice|even</t>
-  </si>
-  <si>
-    <t>pizza|high</t>
-  </si>
-  <si>
-    <t>ever|never|made|service|food</t>
-  </si>
-  <si>
-    <t>place|service|food</t>
-  </si>
-  <si>
-    <t>time|sushi</t>
-  </si>
-  <si>
-    <t>decor|thing|service</t>
-  </si>
-  <si>
-    <t>sushi|food</t>
-  </si>
-  <si>
-    <t>atmosphere|food</t>
-  </si>
-  <si>
-    <t>place|even|food</t>
-  </si>
-  <si>
-    <t>drink</t>
-  </si>
-  <si>
-    <t>atmosphere|service|food</t>
-  </si>
-  <si>
-    <t>drink|dish|special|food</t>
-  </si>
-  <si>
-    <t>bagel|ever|tasty</t>
-  </si>
-  <si>
-    <t>pizza|thing</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>rice|sushi</t>
-  </si>
-  <si>
-    <t>place|even</t>
-  </si>
-  <si>
-    <t>pizza|special</t>
-  </si>
-  <si>
-    <t>price|rice|moderate|food</t>
-  </si>
-  <si>
-    <t>thai|menu|thing</t>
-  </si>
-  <si>
-    <t>special|food</t>
-  </si>
-  <si>
-    <t>thai</t>
-  </si>
-  <si>
-    <t>staff|restaurant</t>
+    <t>price|food|really</t>
+  </si>
+  <si>
+    <t>service|restaurant</t>
+  </si>
+  <si>
+    <t>service|atmosphere|dish</t>
+  </si>
+  <si>
+    <t>food|staff</t>
+  </si>
+  <si>
+    <t>staff|really</t>
+  </si>
+  <si>
+    <t>meal|staff</t>
+  </si>
+  <si>
+    <t>food|would</t>
+  </si>
+  <si>
+    <t>food|place|restaurant|really</t>
+  </si>
+  <si>
+    <t>service|food|menu</t>
+  </si>
+  <si>
+    <t>high|pizza</t>
+  </si>
+  <si>
+    <t>service|food|place</t>
+  </si>
+  <si>
+    <t>food|sushi</t>
+  </si>
+  <si>
+    <t>service|atmosphere|food</t>
+  </si>
+  <si>
+    <t>restaurant|staff</t>
   </si>
   <si>
     <t>casual</t>
   </si>
   <si>
-    <t>atmosphere|wait</t>
-  </si>
-  <si>
-    <t>wine|special</t>
-  </si>
-  <si>
-    <t>restaurant|meal|thing</t>
-  </si>
-  <si>
-    <t>ever|thai</t>
-  </si>
-  <si>
-    <t>place|would|service</t>
-  </si>
-  <si>
-    <t>bagel|special</t>
-  </si>
-  <si>
-    <t>ambience|thing|food</t>
-  </si>
-  <si>
-    <t>staff|time|place|ambience</t>
-  </si>
-  <si>
-    <t>ever|never|place|service</t>
-  </si>
-  <si>
-    <t>bagel|made</t>
-  </si>
-  <si>
-    <t>absolutely|food</t>
-  </si>
-  <si>
-    <t>portion|restaurant</t>
-  </si>
-  <si>
-    <t>price|rice|wine|meal</t>
-  </si>
-  <si>
-    <t>decor|service|food</t>
-  </si>
-  <si>
-    <t>thing|service|food</t>
-  </si>
-  <si>
-    <t>rice|dish</t>
-  </si>
-  <si>
-    <t>ever|never|high</t>
-  </si>
-  <si>
-    <t>tasty|service|food</t>
-  </si>
-  <si>
-    <t>meal|tasty|service|food</t>
-  </si>
-  <si>
-    <t>ever|never</t>
-  </si>
-  <si>
-    <t>ever|never|service</t>
-  </si>
-  <si>
-    <t>price|rice|ever|thing</t>
-  </si>
-  <si>
-    <t>atmosphere|ever|service</t>
-  </si>
-  <si>
-    <t>ever|fish|cheese|salad|thing</t>
-  </si>
-  <si>
-    <t>atmosphere|service</t>
-  </si>
-  <si>
-    <t>pizza|food</t>
-  </si>
-  <si>
-    <t>ever|never|dish</t>
-  </si>
-  <si>
-    <t>drink|service</t>
-  </si>
-  <si>
-    <t>tasty</t>
-  </si>
-  <si>
-    <t>wine|wait</t>
-  </si>
-  <si>
-    <t>drink|even|wait|would</t>
-  </si>
-  <si>
-    <t>price|rice|staff|restaurant|wait|service|food</t>
-  </si>
-  <si>
-    <t>view|even|food</t>
+    <t>service|place|would</t>
+  </si>
+  <si>
+    <t>food|absolutely</t>
+  </si>
+  <si>
+    <t>price|meal</t>
+  </si>
+  <si>
+    <t>service|food|meal</t>
+  </si>
+  <si>
+    <t>service|atmosphere</t>
+  </si>
+  <si>
+    <t>food|pizza</t>
+  </si>
+  <si>
+    <t>dish|always</t>
+  </si>
+  <si>
+    <t>service|price|food|restaurant|staff</t>
   </si>
   <si>
     <t>high|would</t>
   </si>
   <si>
-    <t>pizza|would|tasty</t>
-  </si>
-  <si>
-    <t>wine|decor|service</t>
+    <t>would|pizza</t>
   </si>
   <si>
     <t>going</t>
   </si>
   <si>
-    <t>staff|thing|service</t>
-  </si>
-  <si>
-    <t>pizza|menu</t>
-  </si>
-  <si>
-    <t>ever|never|meal</t>
-  </si>
-  <si>
-    <t>made|meal|menu</t>
+    <t>menu|pizza</t>
+  </si>
+  <si>
+    <t>menu|meal</t>
   </si>
   <si>
     <t>atmosphere|place</t>
   </si>
   <si>
-    <t>atmosphere|restaurant|decor</t>
+    <t>atmosphere|restaurant</t>
   </si>
 </sst>
 </file>
@@ -5416,6 +5023,9 @@
       <c r="D141" t="s">
         <v>595</v>
       </c>
+      <c r="E141" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1">
@@ -5445,7 +5055,7 @@
         <v>597</v>
       </c>
       <c r="E143" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5462,7 +5072,7 @@
         <v>598</v>
       </c>
       <c r="E144" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5478,9 +5088,6 @@
       <c r="D145" t="s">
         <v>596</v>
       </c>
-      <c r="E145" t="s">
-        <v>657</v>
-      </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1">
@@ -5496,7 +5103,7 @@
         <v>595</v>
       </c>
       <c r="E146" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5512,9 +5119,6 @@
       <c r="D147" t="s">
         <v>596</v>
       </c>
-      <c r="E147" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1">
@@ -5529,9 +5133,6 @@
       <c r="D148" t="s">
         <v>595</v>
       </c>
-      <c r="E148" t="s">
-        <v>660</v>
-      </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1">
@@ -5547,7 +5148,7 @@
         <v>599</v>
       </c>
       <c r="E149" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5578,7 +5179,7 @@
         <v>594</v>
       </c>
       <c r="E151" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5595,7 +5196,7 @@
         <v>596</v>
       </c>
       <c r="E152" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5612,7 +5213,7 @@
         <v>594</v>
       </c>
       <c r="E153" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5643,7 +5244,7 @@
         <v>594</v>
       </c>
       <c r="E155" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5659,9 +5260,6 @@
       <c r="D156" t="s">
         <v>594</v>
       </c>
-      <c r="E156" t="s">
-        <v>665</v>
-      </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1">
@@ -5677,7 +5275,7 @@
         <v>596</v>
       </c>
       <c r="E157" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5694,7 +5292,7 @@
         <v>594</v>
       </c>
       <c r="E158" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5711,7 +5309,7 @@
         <v>596</v>
       </c>
       <c r="E159" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5728,7 +5326,7 @@
         <v>595</v>
       </c>
       <c r="E160" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5744,9 +5342,6 @@
       <c r="D161" t="s">
         <v>596</v>
       </c>
-      <c r="E161" t="s">
-        <v>668</v>
-      </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1">
@@ -5762,7 +5357,7 @@
         <v>596</v>
       </c>
       <c r="E162" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5779,7 +5374,7 @@
         <v>600</v>
       </c>
       <c r="E163" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5796,7 +5391,7 @@
         <v>587</v>
       </c>
       <c r="E164" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5813,7 +5408,7 @@
         <v>587</v>
       </c>
       <c r="E165" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5830,7 +5425,7 @@
         <v>596</v>
       </c>
       <c r="E166" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5847,7 +5442,7 @@
         <v>596</v>
       </c>
       <c r="E167" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5878,7 +5473,7 @@
         <v>594</v>
       </c>
       <c r="E169" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5895,7 +5490,7 @@
         <v>596</v>
       </c>
       <c r="E170" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5912,7 +5507,7 @@
         <v>588</v>
       </c>
       <c r="E171" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5929,7 +5524,7 @@
         <v>588</v>
       </c>
       <c r="E172" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5946,7 +5541,7 @@
         <v>602</v>
       </c>
       <c r="E173" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5991,7 +5586,7 @@
         <v>588</v>
       </c>
       <c r="E176" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6008,7 +5603,7 @@
         <v>603</v>
       </c>
       <c r="E177" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6025,7 +5620,7 @@
         <v>595</v>
       </c>
       <c r="E178" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6042,7 +5637,7 @@
         <v>584</v>
       </c>
       <c r="E179" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6059,7 +5654,7 @@
         <v>604</v>
       </c>
       <c r="E180" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6076,7 +5671,7 @@
         <v>596</v>
       </c>
       <c r="E181" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6093,7 +5688,7 @@
         <v>604</v>
       </c>
       <c r="E182" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6126,9 +5721,6 @@
       <c r="D184" t="s">
         <v>595</v>
       </c>
-      <c r="E184" t="s">
-        <v>684</v>
-      </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1">
@@ -6158,7 +5750,7 @@
         <v>594</v>
       </c>
       <c r="E186" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6175,7 +5767,7 @@
         <v>605</v>
       </c>
       <c r="E187" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6192,7 +5784,7 @@
         <v>588</v>
       </c>
       <c r="E188" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6223,7 +5815,7 @@
         <v>596</v>
       </c>
       <c r="E190" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6240,7 +5832,7 @@
         <v>606</v>
       </c>
       <c r="E191" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6257,7 +5849,7 @@
         <v>594</v>
       </c>
       <c r="E192" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6274,7 +5866,7 @@
         <v>594</v>
       </c>
       <c r="E193" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6291,7 +5883,7 @@
         <v>594</v>
       </c>
       <c r="E194" t="s">
-        <v>690</v>
+        <v>655</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6308,7 +5900,7 @@
         <v>607</v>
       </c>
       <c r="E195" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6325,7 +5917,7 @@
         <v>583</v>
       </c>
       <c r="E196" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6342,7 +5934,7 @@
         <v>596</v>
       </c>
       <c r="E197" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6359,7 +5951,7 @@
         <v>595</v>
       </c>
       <c r="E198" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6376,7 +5968,7 @@
         <v>597</v>
       </c>
       <c r="E199" t="s">
-        <v>693</v>
+        <v>653</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6393,7 +5985,7 @@
         <v>594</v>
       </c>
       <c r="E200" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6410,7 +6002,7 @@
         <v>600</v>
       </c>
       <c r="E201" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6426,9 +6018,6 @@
       <c r="D202" t="s">
         <v>594</v>
       </c>
-      <c r="E202" t="s">
-        <v>665</v>
-      </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1">
@@ -6444,7 +6033,7 @@
         <v>596</v>
       </c>
       <c r="E203" t="s">
-        <v>695</v>
+        <v>661</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6461,7 +6050,7 @@
         <v>608</v>
       </c>
       <c r="E204" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6478,7 +6067,7 @@
         <v>588</v>
       </c>
       <c r="E205" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6509,7 +6098,7 @@
         <v>600</v>
       </c>
       <c r="E207" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6540,7 +6129,7 @@
         <v>609</v>
       </c>
       <c r="E209" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6557,7 +6146,7 @@
         <v>608</v>
       </c>
       <c r="E210" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6574,7 +6163,7 @@
         <v>595</v>
       </c>
       <c r="E211" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6591,7 +6180,7 @@
         <v>608</v>
       </c>
       <c r="E212" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6608,7 +6197,7 @@
         <v>610</v>
       </c>
       <c r="E213" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6669,6 +6258,9 @@
       <c r="D217" t="s">
         <v>588</v>
       </c>
+      <c r="E217" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1">
@@ -6684,7 +6276,7 @@
         <v>588</v>
       </c>
       <c r="E218" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6701,7 +6293,7 @@
         <v>595</v>
       </c>
       <c r="E219" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6718,7 +6310,7 @@
         <v>594</v>
       </c>
       <c r="E220" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6734,9 +6326,6 @@
       <c r="D221" t="s">
         <v>609</v>
       </c>
-      <c r="E221" t="s">
-        <v>701</v>
-      </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1">
@@ -6766,7 +6355,7 @@
         <v>596</v>
       </c>
       <c r="E223" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6797,7 +6386,7 @@
         <v>588</v>
       </c>
       <c r="E225" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6814,7 +6403,7 @@
         <v>594</v>
       </c>
       <c r="E226" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6831,7 +6420,7 @@
         <v>597</v>
       </c>
       <c r="E227" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6848,7 +6437,7 @@
         <v>595</v>
       </c>
       <c r="E228" t="s">
-        <v>703</v>
+        <v>669</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6865,7 +6454,7 @@
         <v>596</v>
       </c>
       <c r="E229" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6882,7 +6471,7 @@
         <v>597</v>
       </c>
       <c r="E230" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6899,7 +6488,7 @@
         <v>596</v>
       </c>
       <c r="E231" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6916,7 +6505,7 @@
         <v>596</v>
       </c>
       <c r="E232" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6933,7 +6522,7 @@
         <v>611</v>
       </c>
       <c r="E233" t="s">
-        <v>707</v>
+        <v>659</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6950,7 +6539,7 @@
         <v>594</v>
       </c>
       <c r="E234" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6967,7 +6556,7 @@
         <v>596</v>
       </c>
       <c r="E235" t="s">
-        <v>708</v>
+        <v>677</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6984,7 +6573,7 @@
         <v>594</v>
       </c>
       <c r="E236" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7001,7 +6590,7 @@
         <v>595</v>
       </c>
       <c r="E237" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7018,7 +6607,7 @@
         <v>609</v>
       </c>
       <c r="E238" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7035,7 +6624,7 @@
         <v>594</v>
       </c>
       <c r="E239" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7052,7 +6641,7 @@
         <v>595</v>
       </c>
       <c r="E240" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7068,9 +6657,6 @@
       <c r="D241" t="s">
         <v>609</v>
       </c>
-      <c r="E241" t="s">
-        <v>710</v>
-      </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="1">
@@ -7086,7 +6672,7 @@
         <v>609</v>
       </c>
       <c r="E242" t="s">
-        <v>711</v>
+        <v>684</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7103,7 +6689,7 @@
         <v>596</v>
       </c>
       <c r="E243" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7120,7 +6706,7 @@
         <v>595</v>
       </c>
       <c r="E244" t="s">
-        <v>712</v>
+        <v>653</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7137,7 +6723,7 @@
         <v>594</v>
       </c>
       <c r="E245" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7154,7 +6740,7 @@
         <v>609</v>
       </c>
       <c r="E246" t="s">
-        <v>714</v>
+        <v>675</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7171,7 +6757,7 @@
         <v>604</v>
       </c>
       <c r="E247" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7201,9 +6787,6 @@
       <c r="D249" t="s">
         <v>596</v>
       </c>
-      <c r="E249" t="s">
-        <v>716</v>
-      </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="1">
@@ -7219,7 +6802,7 @@
         <v>596</v>
       </c>
       <c r="E250" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7236,7 +6819,7 @@
         <v>600</v>
       </c>
       <c r="E251" t="s">
-        <v>718</v>
+        <v>663</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7253,7 +6836,7 @@
         <v>595</v>
       </c>
       <c r="E252" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7270,7 +6853,7 @@
         <v>604</v>
       </c>
       <c r="E253" t="s">
-        <v>720</v>
+        <v>669</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7287,7 +6870,7 @@
         <v>612</v>
       </c>
       <c r="E254" t="s">
-        <v>721</v>
+        <v>692</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7304,7 +6887,7 @@
         <v>594</v>
       </c>
       <c r="E255" t="s">
-        <v>722</v>
+        <v>693</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7320,6 +6903,9 @@
       <c r="D256" t="s">
         <v>596</v>
       </c>
+      <c r="E256" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="1">
@@ -7335,7 +6921,7 @@
         <v>604</v>
       </c>
       <c r="E257" t="s">
-        <v>695</v>
+        <v>661</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7351,9 +6937,6 @@
       <c r="D258" t="s">
         <v>596</v>
       </c>
-      <c r="E258" t="s">
-        <v>723</v>
-      </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="1">
@@ -7369,7 +6952,7 @@
         <v>594</v>
       </c>
       <c r="E259" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7385,9 +6968,6 @@
       <c r="D260" t="s">
         <v>596</v>
       </c>
-      <c r="E260" t="s">
-        <v>724</v>
-      </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="1">
@@ -7402,9 +6982,6 @@
       <c r="D261" t="s">
         <v>596</v>
       </c>
-      <c r="E261" t="s">
-        <v>725</v>
-      </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="1">
@@ -7434,7 +7011,7 @@
         <v>588</v>
       </c>
       <c r="E263" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7450,9 +7027,6 @@
       <c r="D264" t="s">
         <v>588</v>
       </c>
-      <c r="E264" t="s">
-        <v>727</v>
-      </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="1">
@@ -7467,9 +7041,6 @@
       <c r="D265" t="s">
         <v>596</v>
       </c>
-      <c r="E265" t="s">
-        <v>724</v>
-      </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="1">
@@ -7484,9 +7055,6 @@
       <c r="D266" t="s">
         <v>596</v>
       </c>
-      <c r="E266" t="s">
-        <v>724</v>
-      </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="1">
@@ -7564,7 +7132,7 @@
         <v>584</v>
       </c>
       <c r="E271" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7598,7 +7166,7 @@
         <v>610</v>
       </c>
       <c r="E273" t="s">
-        <v>729</v>
+        <v>684</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7615,7 +7183,7 @@
         <v>613</v>
       </c>
       <c r="E274" t="s">
-        <v>730</v>
+        <v>697</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7632,7 +7200,7 @@
         <v>594</v>
       </c>
       <c r="E275" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7648,9 +7216,6 @@
       <c r="D276" t="s">
         <v>595</v>
       </c>
-      <c r="E276" t="s">
-        <v>731</v>
-      </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="1">
@@ -7666,7 +7231,7 @@
         <v>596</v>
       </c>
       <c r="E277" t="s">
-        <v>732</v>
+        <v>665</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7683,7 +7248,7 @@
         <v>614</v>
       </c>
       <c r="E278" t="s">
-        <v>733</v>
+        <v>698</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7699,9 +7264,6 @@
       <c r="D279" t="s">
         <v>594</v>
       </c>
-      <c r="E279" t="s">
-        <v>734</v>
-      </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="1">
@@ -7717,7 +7279,7 @@
         <v>615</v>
       </c>
       <c r="E280" t="s">
-        <v>718</v>
+        <v>663</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7734,7 +7296,7 @@
         <v>616</v>
       </c>
       <c r="E281" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7751,7 +7313,7 @@
         <v>607</v>
       </c>
       <c r="E282" t="s">
-        <v>736</v>
+        <v>700</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7767,9 +7329,6 @@
       <c r="D283" t="s">
         <v>596</v>
       </c>
-      <c r="E283" t="s">
-        <v>737</v>
-      </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="1">
@@ -7785,7 +7344,7 @@
         <v>596</v>
       </c>
       <c r="E284" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7802,7 +7361,7 @@
         <v>617</v>
       </c>
       <c r="E285" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7819,7 +7378,7 @@
         <v>588</v>
       </c>
       <c r="E286" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7836,7 +7395,7 @@
         <v>596</v>
       </c>
       <c r="E287" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7853,7 +7412,7 @@
         <v>595</v>
       </c>
       <c r="E288" t="s">
-        <v>738</v>
+        <v>669</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7870,7 +7429,7 @@
         <v>610</v>
       </c>
       <c r="E289" t="s">
-        <v>739</v>
+        <v>659</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7887,7 +7446,7 @@
         <v>596</v>
       </c>
       <c r="E290" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7918,7 +7477,7 @@
         <v>598</v>
       </c>
       <c r="E292" t="s">
-        <v>739</v>
+        <v>659</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7935,7 +7494,7 @@
         <v>600</v>
       </c>
       <c r="E293" t="s">
-        <v>740</v>
+        <v>701</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7952,7 +7511,7 @@
         <v>596</v>
       </c>
       <c r="E294" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7968,9 +7527,6 @@
       <c r="D295" t="s">
         <v>588</v>
       </c>
-      <c r="E295" t="s">
-        <v>727</v>
-      </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="1">
@@ -7986,7 +7542,7 @@
         <v>596</v>
       </c>
       <c r="E296" t="s">
-        <v>695</v>
+        <v>661</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8002,9 +7558,6 @@
       <c r="D297" t="s">
         <v>588</v>
       </c>
-      <c r="E297" t="s">
-        <v>727</v>
-      </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="1">
@@ -8020,7 +7573,7 @@
         <v>596</v>
       </c>
       <c r="E298" t="s">
-        <v>741</v>
+        <v>702</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8037,7 +7590,7 @@
         <v>588</v>
       </c>
       <c r="E299" t="s">
-        <v>742</v>
+        <v>675</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8054,7 +7607,7 @@
         <v>618</v>
       </c>
       <c r="E300" t="s">
-        <v>743</v>
+        <v>703</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8071,7 +7624,7 @@
         <v>588</v>
       </c>
       <c r="E301" t="s">
-        <v>744</v>
+        <v>704</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8088,7 +7641,7 @@
         <v>588</v>
       </c>
       <c r="E302" t="s">
-        <v>745</v>
+        <v>705</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8105,7 +7658,7 @@
         <v>594</v>
       </c>
       <c r="E303" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8122,7 +7675,7 @@
         <v>595</v>
       </c>
       <c r="E304" t="s">
-        <v>746</v>
+        <v>671</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8138,9 +7691,6 @@
       <c r="D305" t="s">
         <v>596</v>
       </c>
-      <c r="E305" t="s">
-        <v>747</v>
-      </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="1">
@@ -8170,7 +7720,7 @@
         <v>597</v>
       </c>
       <c r="E307" t="s">
-        <v>748</v>
+        <v>659</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8201,7 +7751,7 @@
         <v>596</v>
       </c>
       <c r="E309" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8218,7 +7768,7 @@
         <v>598</v>
       </c>
       <c r="E310" t="s">
-        <v>749</v>
+        <v>706</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8235,7 +7785,7 @@
         <v>619</v>
       </c>
       <c r="E311" t="s">
-        <v>750</v>
+        <v>707</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8252,7 +7802,7 @@
         <v>596</v>
       </c>
       <c r="E312" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8283,7 +7833,7 @@
         <v>617</v>
       </c>
       <c r="E314" t="s">
-        <v>751</v>
+        <v>708</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8300,7 +7850,7 @@
         <v>607</v>
       </c>
       <c r="E315" t="s">
-        <v>752</v>
+        <v>709</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8317,7 +7867,7 @@
         <v>620</v>
       </c>
       <c r="E316" t="s">
-        <v>753</v>
+        <v>710</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8334,7 +7884,7 @@
         <v>594</v>
       </c>
       <c r="E317" t="s">
-        <v>754</v>
+        <v>711</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8379,7 +7929,7 @@
         <v>596</v>
       </c>
       <c r="E320" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8396,7 +7946,7 @@
         <v>596</v>
       </c>
       <c r="E321" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8413,7 +7963,7 @@
         <v>597</v>
       </c>
       <c r="E322" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8430,7 +7980,7 @@
         <v>596</v>
       </c>
       <c r="E323" t="s">
-        <v>755</v>
+        <v>655</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8447,7 +7997,7 @@
         <v>604</v>
       </c>
       <c r="E324" t="s">
-        <v>756</v>
+        <v>712</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8464,7 +8014,7 @@
         <v>621</v>
       </c>
       <c r="E325" t="s">
-        <v>757</v>
+        <v>713</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8481,7 +8031,7 @@
         <v>596</v>
       </c>
       <c r="E326" t="s">
-        <v>758</v>
+        <v>664</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8497,9 +8047,6 @@
       <c r="D327" t="s">
         <v>596</v>
       </c>
-      <c r="E327" t="s">
-        <v>657</v>
-      </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="1">
@@ -8515,7 +8062,7 @@
         <v>588</v>
       </c>
       <c r="E328" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8532,7 +8079,7 @@
         <v>588</v>
       </c>
       <c r="E329" t="s">
-        <v>759</v>
+        <v>668</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8549,7 +8096,7 @@
         <v>596</v>
       </c>
       <c r="E330" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8566,7 +8113,7 @@
         <v>596</v>
       </c>
       <c r="E331" t="s">
-        <v>755</v>
+        <v>694</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8583,7 +8130,7 @@
         <v>594</v>
       </c>
       <c r="E332" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8617,7 +8164,7 @@
         <v>588</v>
       </c>
       <c r="E334" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8633,6 +8180,9 @@
       <c r="D335" t="s">
         <v>588</v>
       </c>
+      <c r="E335" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="1">
@@ -8648,7 +8198,7 @@
         <v>594</v>
       </c>
       <c r="E336" t="s">
-        <v>760</v>
+        <v>663</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8665,7 +8215,7 @@
         <v>596</v>
       </c>
       <c r="E337" t="s">
-        <v>736</v>
+        <v>700</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8682,7 +8232,7 @@
         <v>594</v>
       </c>
       <c r="E338" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8699,7 +8249,7 @@
         <v>596</v>
       </c>
       <c r="E339" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8730,7 +8280,7 @@
         <v>622</v>
       </c>
       <c r="E341" t="s">
-        <v>761</v>
+        <v>714</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8746,9 +8296,6 @@
       <c r="D342" t="s">
         <v>596</v>
       </c>
-      <c r="E342" t="s">
-        <v>716</v>
-      </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="1">
@@ -8764,7 +8311,7 @@
         <v>595</v>
       </c>
       <c r="E343" t="s">
-        <v>716</v>
+        <v>655</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8780,9 +8327,6 @@
       <c r="D344" t="s">
         <v>595</v>
       </c>
-      <c r="E344" t="s">
-        <v>762</v>
-      </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="1">
@@ -8797,6 +8341,9 @@
       <c r="D345" t="s">
         <v>596</v>
       </c>
+      <c r="E345" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="1">
@@ -8812,7 +8359,7 @@
         <v>596</v>
       </c>
       <c r="E346" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8829,7 +8376,7 @@
         <v>610</v>
       </c>
       <c r="E347" t="s">
-        <v>739</v>
+        <v>659</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8846,7 +8393,7 @@
         <v>607</v>
       </c>
       <c r="E348" t="s">
-        <v>763</v>
+        <v>686</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8877,7 +8424,7 @@
         <v>588</v>
       </c>
       <c r="E350" t="s">
-        <v>764</v>
+        <v>715</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8894,7 +8441,7 @@
         <v>596</v>
       </c>
       <c r="E351" t="s">
-        <v>765</v>
+        <v>712</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8955,9 +8502,6 @@
       <c r="D355" t="s">
         <v>596</v>
       </c>
-      <c r="E355" t="s">
-        <v>766</v>
-      </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="1">
@@ -8973,7 +8517,7 @@
         <v>600</v>
       </c>
       <c r="E356" t="s">
-        <v>767</v>
+        <v>659</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -8990,7 +8534,7 @@
         <v>603</v>
       </c>
       <c r="E357" t="s">
-        <v>768</v>
+        <v>716</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9021,7 +8565,7 @@
         <v>623</v>
       </c>
       <c r="E359" t="s">
-        <v>769</v>
+        <v>641</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9038,7 +8582,7 @@
         <v>600</v>
       </c>
       <c r="E360" t="s">
-        <v>770</v>
+        <v>717</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9055,7 +8599,7 @@
         <v>596</v>
       </c>
       <c r="E361" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9072,7 +8616,7 @@
         <v>594</v>
       </c>
       <c r="E362" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9089,7 +8633,7 @@
         <v>596</v>
       </c>
       <c r="E363" t="s">
-        <v>703</v>
+        <v>669</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9106,7 +8650,7 @@
         <v>594</v>
       </c>
       <c r="E364" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9123,7 +8667,7 @@
         <v>594</v>
       </c>
       <c r="E365" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9140,7 +8684,7 @@
         <v>596</v>
       </c>
       <c r="E366" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9157,7 +8701,7 @@
         <v>594</v>
       </c>
       <c r="E367" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9173,9 +8717,6 @@
       <c r="D368" t="s">
         <v>617</v>
       </c>
-      <c r="E368" t="s">
-        <v>771</v>
-      </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="1">
@@ -9191,7 +8732,7 @@
         <v>584</v>
       </c>
       <c r="E369" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9208,7 +8749,7 @@
         <v>595</v>
       </c>
       <c r="E370" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9225,7 +8766,7 @@
         <v>610</v>
       </c>
       <c r="E371" t="s">
-        <v>772</v>
+        <v>659</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9242,7 +8783,7 @@
         <v>596</v>
       </c>
       <c r="E372" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9259,7 +8800,7 @@
         <v>596</v>
       </c>
       <c r="E373" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9289,9 +8830,6 @@
       <c r="D375" t="s">
         <v>595</v>
       </c>
-      <c r="E375" t="s">
-        <v>668</v>
-      </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="1">
@@ -9307,7 +8845,7 @@
         <v>596</v>
       </c>
       <c r="E376" t="s">
-        <v>773</v>
+        <v>661</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9324,7 +8862,7 @@
         <v>596</v>
       </c>
       <c r="E377" t="s">
-        <v>695</v>
+        <v>661</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9341,7 +8879,7 @@
         <v>596</v>
       </c>
       <c r="E378" t="s">
-        <v>695</v>
+        <v>661</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9358,7 +8896,7 @@
         <v>603</v>
       </c>
       <c r="E379" t="s">
-        <v>774</v>
+        <v>664</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9375,7 +8913,7 @@
         <v>595</v>
       </c>
       <c r="E380" t="s">
-        <v>775</v>
+        <v>694</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9392,7 +8930,7 @@
         <v>594</v>
       </c>
       <c r="E381" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9409,7 +8947,7 @@
         <v>594</v>
       </c>
       <c r="E382" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9426,7 +8964,7 @@
         <v>596</v>
       </c>
       <c r="E383" t="s">
-        <v>776</v>
+        <v>677</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9457,7 +8995,7 @@
         <v>607</v>
       </c>
       <c r="E385" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9474,7 +9012,7 @@
         <v>594</v>
       </c>
       <c r="E386" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9491,7 +9029,7 @@
         <v>616</v>
       </c>
       <c r="E387" t="s">
-        <v>777</v>
+        <v>718</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9508,7 +9046,7 @@
         <v>596</v>
       </c>
       <c r="E388" t="s">
-        <v>778</v>
+        <v>646</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9541,9 +9079,6 @@
       <c r="D390" t="s">
         <v>584</v>
       </c>
-      <c r="E390" t="s">
-        <v>779</v>
-      </c>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="1">
@@ -9559,7 +9094,7 @@
         <v>588</v>
       </c>
       <c r="E391" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9607,7 +9142,7 @@
         <v>610</v>
       </c>
       <c r="E394" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9624,7 +9159,7 @@
         <v>595</v>
       </c>
       <c r="E395" t="s">
-        <v>780</v>
+        <v>653</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9641,7 +9176,7 @@
         <v>596</v>
       </c>
       <c r="E396" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9657,9 +9192,6 @@
       <c r="D397" t="s">
         <v>596</v>
       </c>
-      <c r="E397" t="s">
-        <v>747</v>
-      </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="1">
@@ -9675,7 +9207,7 @@
         <v>594</v>
       </c>
       <c r="E398" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9692,7 +9224,7 @@
         <v>595</v>
       </c>
       <c r="E399" t="s">
-        <v>781</v>
+        <v>719</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9723,7 +9255,7 @@
         <v>598</v>
       </c>
       <c r="E401" t="s">
-        <v>739</v>
+        <v>659</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -9740,7 +9272,7 @@
         <v>596</v>
       </c>
       <c r="E402" t="s">
-        <v>782</v>
+        <v>640</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -9774,7 +9306,7 @@
         <v>611</v>
       </c>
       <c r="E404" t="s">
-        <v>783</v>
+        <v>663</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -9790,9 +9322,6 @@
       <c r="D405" t="s">
         <v>594</v>
       </c>
-      <c r="E405" t="s">
-        <v>665</v>
-      </c>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="1">
@@ -9808,7 +9337,7 @@
         <v>596</v>
       </c>
       <c r="E406" t="s">
-        <v>784</v>
+        <v>720</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -9824,9 +9353,6 @@
       <c r="D407" t="s">
         <v>603</v>
       </c>
-      <c r="E407" t="s">
-        <v>747</v>
-      </c>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="1">
@@ -9842,7 +9368,7 @@
         <v>593</v>
       </c>
       <c r="E408" t="s">
-        <v>693</v>
+        <v>653</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -9859,7 +9385,7 @@
         <v>596</v>
       </c>
       <c r="E409" t="s">
-        <v>785</v>
+        <v>653</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -9875,9 +9401,6 @@
       <c r="D410" t="s">
         <v>587</v>
       </c>
-      <c r="E410" t="s">
-        <v>737</v>
-      </c>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="1">
@@ -9907,7 +9430,7 @@
         <v>596</v>
       </c>
       <c r="E412" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -9924,7 +9447,7 @@
         <v>588</v>
       </c>
       <c r="E413" t="s">
-        <v>786</v>
+        <v>721</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -9941,7 +9464,7 @@
         <v>624</v>
       </c>
       <c r="E414" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -9958,7 +9481,7 @@
         <v>594</v>
       </c>
       <c r="E415" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -9975,7 +9498,7 @@
         <v>594</v>
       </c>
       <c r="E416" t="s">
-        <v>787</v>
+        <v>659</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -9991,9 +9514,6 @@
       <c r="D417" t="s">
         <v>594</v>
       </c>
-      <c r="E417" t="s">
-        <v>779</v>
-      </c>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="1">
@@ -10008,9 +9528,6 @@
       <c r="D418" t="s">
         <v>594</v>
       </c>
-      <c r="E418" t="s">
-        <v>665</v>
-      </c>
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="1">
@@ -10026,7 +9543,7 @@
         <v>596</v>
       </c>
       <c r="E419" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10043,7 +9560,7 @@
         <v>596</v>
       </c>
       <c r="E420" t="s">
-        <v>788</v>
+        <v>671</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10059,9 +9576,6 @@
       <c r="D421" t="s">
         <v>588</v>
       </c>
-      <c r="E421" t="s">
-        <v>789</v>
-      </c>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="1">
@@ -10077,7 +9591,7 @@
         <v>608</v>
       </c>
       <c r="E422" t="s">
-        <v>790</v>
+        <v>722</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10094,7 +9608,7 @@
         <v>596</v>
       </c>
       <c r="E423" t="s">
-        <v>791</v>
+        <v>677</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10111,7 +9625,7 @@
         <v>594</v>
       </c>
       <c r="E424" t="s">
-        <v>792</v>
+        <v>723</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10128,7 +9642,7 @@
         <v>625</v>
       </c>
       <c r="E425" t="s">
-        <v>793</v>
+        <v>724</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10145,7 +9659,7 @@
         <v>618</v>
       </c>
       <c r="E426" t="s">
-        <v>794</v>
+        <v>725</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10193,7 +9707,7 @@
         <v>598</v>
       </c>
       <c r="E429" t="s">
-        <v>700</v>
+        <v>726</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10210,7 +9724,7 @@
         <v>600</v>
       </c>
       <c r="E430" t="s">
-        <v>795</v>
+        <v>683</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10227,7 +9741,7 @@
         <v>594</v>
       </c>
       <c r="E431" t="s">
-        <v>796</v>
+        <v>683</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10244,7 +9758,7 @@
         <v>600</v>
       </c>
       <c r="E432" t="s">
-        <v>797</v>
+        <v>682</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10260,9 +9774,6 @@
       <c r="D433" t="s">
         <v>596</v>
       </c>
-      <c r="E433" t="s">
-        <v>798</v>
-      </c>
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="1">
@@ -10278,7 +9789,7 @@
         <v>594</v>
       </c>
       <c r="E434" t="s">
-        <v>799</v>
+        <v>727</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10295,7 +9806,7 @@
         <v>595</v>
       </c>
       <c r="E435" t="s">
-        <v>800</v>
+        <v>689</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10326,7 +9837,7 @@
         <v>596</v>
       </c>
       <c r="E437" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10343,7 +9854,7 @@
         <v>588</v>
       </c>
       <c r="E438" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10360,7 +9871,7 @@
         <v>594</v>
       </c>
       <c r="E439" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10391,7 +9902,7 @@
         <v>595</v>
       </c>
       <c r="E441" t="s">
-        <v>801</v>
+        <v>689</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10408,7 +9919,7 @@
         <v>594</v>
       </c>
       <c r="E442" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10424,9 +9935,6 @@
       <c r="D443" t="s">
         <v>595</v>
       </c>
-      <c r="E443" t="s">
-        <v>802</v>
-      </c>
     </row>
     <row r="444" spans="1:5">
       <c r="A444" s="1">
@@ -10442,7 +9950,7 @@
         <v>596</v>
       </c>
       <c r="E444" t="s">
-        <v>803</v>
+        <v>728</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10458,9 +9966,6 @@
       <c r="D445" t="s">
         <v>596</v>
       </c>
-      <c r="E445" t="s">
-        <v>804</v>
-      </c>
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="1">
@@ -10476,7 +9981,7 @@
         <v>607</v>
       </c>
       <c r="E446" t="s">
-        <v>805</v>
+        <v>729</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10493,7 +9998,7 @@
         <v>595</v>
       </c>
       <c r="E447" t="s">
-        <v>806</v>
+        <v>689</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10524,7 +10029,7 @@
         <v>596</v>
       </c>
       <c r="E449" t="s">
-        <v>807</v>
+        <v>675</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10541,7 +10046,7 @@
         <v>596</v>
       </c>
       <c r="E450" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10558,7 +10063,7 @@
         <v>595</v>
       </c>
       <c r="E451" t="s">
-        <v>808</v>
+        <v>669</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10602,9 +10107,6 @@
       <c r="D454" t="s">
         <v>595</v>
       </c>
-      <c r="E454" t="s">
-        <v>809</v>
-      </c>
     </row>
     <row r="455" spans="1:5">
       <c r="A455" s="1">
@@ -10634,7 +10136,7 @@
         <v>596</v>
       </c>
       <c r="E456" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -10651,7 +10153,7 @@
         <v>596</v>
       </c>
       <c r="E457" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -10668,7 +10170,7 @@
         <v>618</v>
       </c>
       <c r="E458" t="s">
-        <v>810</v>
+        <v>730</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -10685,7 +10187,7 @@
         <v>601</v>
       </c>
       <c r="E459" t="s">
-        <v>811</v>
+        <v>665</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -10716,7 +10218,7 @@
         <v>597</v>
       </c>
       <c r="E461" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -10733,7 +10235,7 @@
         <v>626</v>
       </c>
       <c r="E462" t="s">
-        <v>812</v>
+        <v>661</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -10750,7 +10252,7 @@
         <v>600</v>
       </c>
       <c r="E463" t="s">
-        <v>813</v>
+        <v>653</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -10767,7 +10269,7 @@
         <v>596</v>
       </c>
       <c r="E464" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -10784,7 +10286,7 @@
         <v>594</v>
       </c>
       <c r="E465" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -10800,9 +10302,6 @@
       <c r="D466" t="s">
         <v>594</v>
       </c>
-      <c r="E466" t="s">
-        <v>665</v>
-      </c>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="1">
@@ -10818,7 +10317,7 @@
         <v>596</v>
       </c>
       <c r="E467" t="s">
-        <v>814</v>
+        <v>689</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -10835,7 +10334,7 @@
         <v>596</v>
       </c>
       <c r="E468" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -10851,9 +10350,6 @@
       <c r="D469" t="s">
         <v>596</v>
       </c>
-      <c r="E469" t="s">
-        <v>665</v>
-      </c>
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="1">
@@ -10869,7 +10365,7 @@
         <v>597</v>
       </c>
       <c r="E470" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -10885,6 +10381,9 @@
       <c r="D471" t="s">
         <v>604</v>
       </c>
+      <c r="E471" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="1">
@@ -10900,7 +10399,7 @@
         <v>600</v>
       </c>
       <c r="E472" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -10917,7 +10416,7 @@
         <v>596</v>
       </c>
       <c r="E473" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -10934,7 +10433,7 @@
         <v>627</v>
       </c>
       <c r="E474" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -10951,7 +10450,7 @@
         <v>596</v>
       </c>
       <c r="E475" t="s">
-        <v>815</v>
+        <v>664</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -10968,7 +10467,7 @@
         <v>596</v>
       </c>
       <c r="E476" t="s">
-        <v>747</v>
+        <v>694</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -10985,7 +10484,7 @@
         <v>596</v>
       </c>
       <c r="E477" t="s">
-        <v>816</v>
+        <v>670</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11002,7 +10501,7 @@
         <v>596</v>
       </c>
       <c r="E478" t="s">
-        <v>817</v>
+        <v>731</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11019,7 +10518,7 @@
         <v>600</v>
       </c>
       <c r="E479" t="s">
-        <v>818</v>
+        <v>663</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11036,7 +10535,7 @@
         <v>600</v>
       </c>
       <c r="E480" t="s">
-        <v>819</v>
+        <v>732</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11053,7 +10552,7 @@
         <v>595</v>
       </c>
       <c r="E481" t="s">
-        <v>820</v>
+        <v>661</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11070,7 +10569,7 @@
         <v>625</v>
       </c>
       <c r="E482" t="s">
-        <v>821</v>
+        <v>659</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11087,7 +10586,7 @@
         <v>595</v>
       </c>
       <c r="E483" t="s">
-        <v>822</v>
+        <v>733</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11118,7 +10617,7 @@
         <v>600</v>
       </c>
       <c r="E485" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11135,7 +10634,7 @@
         <v>614</v>
       </c>
       <c r="E486" t="s">
-        <v>763</v>
+        <v>686</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11180,7 +10679,7 @@
         <v>591</v>
       </c>
       <c r="E489" t="s">
-        <v>758</v>
+        <v>664</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11197,7 +10696,7 @@
         <v>608</v>
       </c>
       <c r="E490" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11214,7 +10713,7 @@
         <v>584</v>
       </c>
       <c r="E491" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -11231,7 +10730,7 @@
         <v>596</v>
       </c>
       <c r="E492" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11248,7 +10747,7 @@
         <v>616</v>
       </c>
       <c r="E493" t="s">
-        <v>823</v>
+        <v>718</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11265,7 +10764,7 @@
         <v>594</v>
       </c>
       <c r="E494" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11281,6 +10780,9 @@
       <c r="D495" t="s">
         <v>595</v>
       </c>
+      <c r="E495" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="1">
@@ -11310,7 +10812,7 @@
         <v>608</v>
       </c>
       <c r="E497" t="s">
-        <v>824</v>
+        <v>679</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11341,7 +10843,7 @@
         <v>594</v>
       </c>
       <c r="E499" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11357,9 +10859,6 @@
       <c r="D500" t="s">
         <v>595</v>
       </c>
-      <c r="E500" t="s">
-        <v>825</v>
-      </c>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" s="1">
@@ -11392,7 +10891,7 @@
         <v>592</v>
       </c>
       <c r="E502" t="s">
-        <v>826</v>
+        <v>734</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11409,7 +10908,7 @@
         <v>596</v>
       </c>
       <c r="E503" t="s">
-        <v>785</v>
+        <v>653</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11426,7 +10925,7 @@
         <v>588</v>
       </c>
       <c r="E504" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -11443,7 +10942,7 @@
         <v>588</v>
       </c>
       <c r="E505" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11460,7 +10959,7 @@
         <v>604</v>
       </c>
       <c r="E506" t="s">
-        <v>827</v>
+        <v>689</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11477,7 +10976,7 @@
         <v>588</v>
       </c>
       <c r="E507" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -11494,7 +10993,7 @@
         <v>596</v>
       </c>
       <c r="E508" t="s">
-        <v>695</v>
+        <v>661</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11525,7 +11024,7 @@
         <v>604</v>
       </c>
       <c r="E510" t="s">
-        <v>828</v>
+        <v>694</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11542,7 +11041,7 @@
         <v>594</v>
       </c>
       <c r="E511" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -11559,7 +11058,7 @@
         <v>596</v>
       </c>
       <c r="E512" t="s">
-        <v>829</v>
+        <v>669</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -11576,7 +11075,7 @@
         <v>600</v>
       </c>
       <c r="E513" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -11592,9 +11091,6 @@
       <c r="D514" t="s">
         <v>595</v>
       </c>
-      <c r="E514" t="s">
-        <v>737</v>
-      </c>
     </row>
     <row r="515" spans="1:5">
       <c r="A515" s="1">
@@ -11624,7 +11120,7 @@
         <v>596</v>
       </c>
       <c r="E516" t="s">
-        <v>695</v>
+        <v>661</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -11640,9 +11136,6 @@
       <c r="D517" t="s">
         <v>596</v>
       </c>
-      <c r="E517" t="s">
-        <v>830</v>
-      </c>
     </row>
     <row r="518" spans="1:5">
       <c r="A518" s="1">
@@ -11658,7 +11151,7 @@
         <v>595</v>
       </c>
       <c r="E518" t="s">
-        <v>831</v>
+        <v>661</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -11674,9 +11167,6 @@
       <c r="D519" t="s">
         <v>596</v>
       </c>
-      <c r="E519" t="s">
-        <v>747</v>
-      </c>
     </row>
     <row r="520" spans="1:5">
       <c r="A520" s="1">
@@ -11692,7 +11182,7 @@
         <v>594</v>
       </c>
       <c r="E520" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -11709,7 +11199,7 @@
         <v>584</v>
       </c>
       <c r="E521" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -11740,7 +11230,7 @@
         <v>588</v>
       </c>
       <c r="E523" t="s">
-        <v>832</v>
+        <v>675</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -11771,7 +11261,7 @@
         <v>595</v>
       </c>
       <c r="E525" t="s">
-        <v>833</v>
+        <v>669</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -11787,9 +11277,6 @@
       <c r="D526" t="s">
         <v>588</v>
       </c>
-      <c r="E526" t="s">
-        <v>766</v>
-      </c>
     </row>
     <row r="527" spans="1:5">
       <c r="A527" s="1">
@@ -11805,7 +11292,7 @@
         <v>617</v>
       </c>
       <c r="E527" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -11822,7 +11309,7 @@
         <v>596</v>
       </c>
       <c r="E528" t="s">
-        <v>834</v>
+        <v>641</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -11839,7 +11326,7 @@
         <v>596</v>
       </c>
       <c r="E529" t="s">
-        <v>813</v>
+        <v>653</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -11856,7 +11343,7 @@
         <v>595</v>
       </c>
       <c r="E530" t="s">
-        <v>835</v>
+        <v>664</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -11873,7 +11360,7 @@
         <v>594</v>
       </c>
       <c r="E531" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -11890,7 +11377,7 @@
         <v>596</v>
       </c>
       <c r="E532" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -11907,7 +11394,7 @@
         <v>588</v>
       </c>
       <c r="E533" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -11924,7 +11411,7 @@
         <v>597</v>
       </c>
       <c r="E534" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -11940,9 +11427,6 @@
       <c r="D535" t="s">
         <v>595</v>
       </c>
-      <c r="E535" t="s">
-        <v>724</v>
-      </c>
     </row>
     <row r="536" spans="1:5">
       <c r="A536" s="1">
@@ -11958,7 +11442,7 @@
         <v>594</v>
       </c>
       <c r="E536" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -11975,7 +11459,7 @@
         <v>604</v>
       </c>
       <c r="E537" t="s">
-        <v>836</v>
+        <v>653</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -11992,7 +11476,7 @@
         <v>588</v>
       </c>
       <c r="E538" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -12008,9 +11492,6 @@
       <c r="D539" t="s">
         <v>628</v>
       </c>
-      <c r="E539" t="s">
-        <v>825</v>
-      </c>
     </row>
     <row r="540" spans="1:5">
       <c r="A540" s="1">
@@ -12039,9 +11520,6 @@
       <c r="D541" t="s">
         <v>596</v>
       </c>
-      <c r="E541" t="s">
-        <v>837</v>
-      </c>
     </row>
     <row r="542" spans="1:5">
       <c r="A542" s="1">
@@ -12071,7 +11549,7 @@
         <v>594</v>
       </c>
       <c r="E543" t="s">
-        <v>838</v>
+        <v>735</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -12088,7 +11566,7 @@
         <v>596</v>
       </c>
       <c r="E544" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12105,7 +11583,7 @@
         <v>596</v>
       </c>
       <c r="E545" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -12122,7 +11600,7 @@
         <v>588</v>
       </c>
       <c r="E546" t="s">
-        <v>839</v>
+        <v>736</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -12139,7 +11617,7 @@
         <v>596</v>
       </c>
       <c r="E547" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -12170,7 +11648,7 @@
         <v>598</v>
       </c>
       <c r="E549" t="s">
-        <v>840</v>
+        <v>684</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12187,7 +11665,7 @@
         <v>596</v>
       </c>
       <c r="E550" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -12203,9 +11681,6 @@
       <c r="D551" t="s">
         <v>596</v>
       </c>
-      <c r="E551" t="s">
-        <v>841</v>
-      </c>
     </row>
     <row r="552" spans="1:5">
       <c r="A552" s="1">
@@ -12221,7 +11696,7 @@
         <v>607</v>
       </c>
       <c r="E552" t="s">
-        <v>842</v>
+        <v>709</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12237,9 +11712,6 @@
       <c r="D553" t="s">
         <v>595</v>
       </c>
-      <c r="E553" t="s">
-        <v>843</v>
-      </c>
     </row>
     <row r="554" spans="1:5">
       <c r="A554" s="1">
@@ -12269,7 +11741,7 @@
         <v>594</v>
       </c>
       <c r="E555" t="s">
-        <v>844</v>
+        <v>737</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -12299,9 +11771,6 @@
       <c r="D557" t="s">
         <v>596</v>
       </c>
-      <c r="E557" t="s">
-        <v>845</v>
-      </c>
     </row>
     <row r="558" spans="1:5">
       <c r="A558" s="1">
@@ -12334,7 +11803,7 @@
         <v>594</v>
       </c>
       <c r="E559" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -12351,7 +11820,7 @@
         <v>607</v>
       </c>
       <c r="E560" t="s">
-        <v>846</v>
+        <v>653</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -12368,7 +11837,7 @@
         <v>610</v>
       </c>
       <c r="E561" t="s">
-        <v>847</v>
+        <v>652</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -12402,7 +11871,7 @@
         <v>584</v>
       </c>
       <c r="E563" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -12419,7 +11888,7 @@
         <v>596</v>
       </c>
       <c r="E564" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -12436,7 +11905,7 @@
         <v>610</v>
       </c>
       <c r="E565" t="s">
-        <v>848</v>
+        <v>706</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -12453,7 +11922,7 @@
         <v>596</v>
       </c>
       <c r="E566" t="s">
-        <v>845</v>
+        <v>694</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -12469,9 +11938,6 @@
       <c r="D567" t="s">
         <v>595</v>
       </c>
-      <c r="E567" t="s">
-        <v>849</v>
-      </c>
     </row>
     <row r="568" spans="1:5">
       <c r="A568" s="1">
@@ -12487,7 +11953,7 @@
         <v>594</v>
       </c>
       <c r="E568" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -12504,7 +11970,7 @@
         <v>596</v>
       </c>
       <c r="E569" t="s">
-        <v>850</v>
+        <v>738</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -12520,9 +11986,6 @@
       <c r="D570" t="s">
         <v>596</v>
       </c>
-      <c r="E570" t="s">
-        <v>766</v>
-      </c>
     </row>
     <row r="571" spans="1:5">
       <c r="A571" s="1">
@@ -12551,9 +12014,6 @@
       <c r="D572" t="s">
         <v>594</v>
       </c>
-      <c r="E572" t="s">
-        <v>665</v>
-      </c>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="1">
@@ -12569,7 +12029,7 @@
         <v>609</v>
       </c>
       <c r="E573" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -12614,7 +12074,7 @@
         <v>594</v>
       </c>
       <c r="E576" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -12631,7 +12091,7 @@
         <v>629</v>
       </c>
       <c r="E577" t="s">
-        <v>851</v>
+        <v>668</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -12647,9 +12107,6 @@
       <c r="D578" t="s">
         <v>603</v>
       </c>
-      <c r="E578" t="s">
-        <v>657</v>
-      </c>
     </row>
     <row r="579" spans="1:5">
       <c r="A579" s="1">
@@ -12665,7 +12122,7 @@
         <v>584</v>
       </c>
       <c r="E579" t="s">
-        <v>852</v>
+        <v>739</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -12682,7 +12139,7 @@
         <v>612</v>
       </c>
       <c r="E580" t="s">
-        <v>853</v>
+        <v>663</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -12699,7 +12156,7 @@
         <v>588</v>
       </c>
       <c r="E581" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -12716,7 +12173,7 @@
         <v>630</v>
       </c>
       <c r="E582" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -12747,7 +12204,7 @@
         <v>600</v>
       </c>
       <c r="E584" t="s">
-        <v>854</v>
+        <v>663</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -12778,7 +12235,7 @@
         <v>594</v>
       </c>
       <c r="E586" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -12795,7 +12252,7 @@
         <v>596</v>
       </c>
       <c r="E587" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -12812,7 +12269,7 @@
         <v>595</v>
       </c>
       <c r="E588" t="s">
-        <v>836</v>
+        <v>653</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -12829,7 +12286,7 @@
         <v>595</v>
       </c>
       <c r="E589" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -12846,7 +12303,7 @@
         <v>595</v>
       </c>
       <c r="E590" t="s">
-        <v>855</v>
+        <v>665</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -12863,7 +12320,7 @@
         <v>594</v>
       </c>
       <c r="E591" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -12880,7 +12337,7 @@
         <v>609</v>
       </c>
       <c r="E592" t="s">
-        <v>856</v>
+        <v>691</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -12897,7 +12354,7 @@
         <v>606</v>
       </c>
       <c r="E593" t="s">
-        <v>857</v>
+        <v>663</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -12913,9 +12370,6 @@
       <c r="D594" t="s">
         <v>588</v>
       </c>
-      <c r="E594" t="s">
-        <v>665</v>
-      </c>
     </row>
     <row r="595" spans="1:5">
       <c r="A595" s="1">
@@ -12931,7 +12385,7 @@
         <v>631</v>
       </c>
       <c r="E595" t="s">
-        <v>858</v>
+        <v>740</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -12948,7 +12402,7 @@
         <v>596</v>
       </c>
       <c r="E596" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -12964,9 +12418,6 @@
       <c r="D597" t="s">
         <v>596</v>
       </c>
-      <c r="E597" t="s">
-        <v>859</v>
-      </c>
     </row>
     <row r="598" spans="1:5">
       <c r="A598" s="1">
@@ -12996,7 +12447,7 @@
         <v>587</v>
       </c>
       <c r="E599" t="s">
-        <v>769</v>
+        <v>641</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -13013,7 +12464,7 @@
         <v>632</v>
       </c>
       <c r="E600" t="s">
-        <v>826</v>
+        <v>734</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -13030,7 +12481,7 @@
         <v>596</v>
       </c>
       <c r="E601" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -13047,7 +12498,7 @@
         <v>594</v>
       </c>
       <c r="E602" t="s">
-        <v>860</v>
+        <v>659</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -13063,9 +12514,6 @@
       <c r="D603" t="s">
         <v>596</v>
       </c>
-      <c r="E603" t="s">
-        <v>766</v>
-      </c>
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="1">
@@ -13081,7 +12529,7 @@
         <v>595</v>
       </c>
       <c r="E604" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -13098,7 +12546,7 @@
         <v>596</v>
       </c>
       <c r="E605" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -13115,7 +12563,7 @@
         <v>596</v>
       </c>
       <c r="E606" t="s">
-        <v>861</v>
+        <v>646</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -13132,7 +12580,7 @@
         <v>598</v>
       </c>
       <c r="E607" t="s">
-        <v>862</v>
+        <v>741</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -13149,7 +12597,7 @@
         <v>596</v>
       </c>
       <c r="E608" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -13165,6 +12613,9 @@
       <c r="D609" t="s">
         <v>594</v>
       </c>
+      <c r="E609" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="610" spans="1:5">
       <c r="A610" s="1">
@@ -13180,7 +12631,7 @@
         <v>584</v>
       </c>
       <c r="E610" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -13196,9 +12647,6 @@
       <c r="D611" t="s">
         <v>596</v>
       </c>
-      <c r="E611" t="s">
-        <v>843</v>
-      </c>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="1">
@@ -13214,7 +12662,7 @@
         <v>609</v>
       </c>
       <c r="E612" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -13231,7 +12679,7 @@
         <v>596</v>
       </c>
       <c r="E613" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -13247,9 +12695,6 @@
       <c r="D614" t="s">
         <v>603</v>
       </c>
-      <c r="E614" t="s">
-        <v>863</v>
-      </c>
     </row>
     <row r="615" spans="1:5">
       <c r="A615" s="1">
@@ -13265,7 +12710,7 @@
         <v>592</v>
       </c>
       <c r="E615" t="s">
-        <v>864</v>
+        <v>741</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -13282,7 +12727,7 @@
         <v>604</v>
       </c>
       <c r="E616" t="s">
-        <v>865</v>
+        <v>742</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -13299,7 +12744,7 @@
         <v>633</v>
       </c>
       <c r="E617" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -13330,7 +12775,7 @@
         <v>596</v>
       </c>
       <c r="E619" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -13346,6 +12791,9 @@
       <c r="D620" t="s">
         <v>596</v>
       </c>
+      <c r="E620" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="621" spans="1:5">
       <c r="A621" s="1">
@@ -13389,7 +12837,7 @@
         <v>596</v>
       </c>
       <c r="E623" t="s">
-        <v>785</v>
+        <v>653</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -13406,7 +12854,7 @@
         <v>596</v>
       </c>
       <c r="E624" t="s">
-        <v>813</v>
+        <v>653</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -13423,7 +12871,7 @@
         <v>592</v>
       </c>
       <c r="E625" t="s">
-        <v>853</v>
+        <v>663</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -13439,9 +12887,6 @@
       <c r="D626" t="s">
         <v>595</v>
       </c>
-      <c r="E626" t="s">
-        <v>830</v>
-      </c>
     </row>
     <row r="627" spans="1:5">
       <c r="A627" s="1">
@@ -13471,7 +12916,7 @@
         <v>598</v>
       </c>
       <c r="E628" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -13488,7 +12933,7 @@
         <v>596</v>
       </c>
       <c r="E629" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="630" spans="1:5">
@@ -13505,7 +12950,7 @@
         <v>598</v>
       </c>
       <c r="E630" t="s">
-        <v>864</v>
+        <v>741</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -13550,7 +12995,7 @@
         <v>595</v>
       </c>
       <c r="E633" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -13567,7 +13012,7 @@
         <v>594</v>
       </c>
       <c r="E634" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -13583,9 +13028,6 @@
       <c r="D635" t="s">
         <v>607</v>
       </c>
-      <c r="E635" t="s">
-        <v>789</v>
-      </c>
     </row>
     <row r="636" spans="1:5">
       <c r="A636" s="1">
@@ -13600,9 +13042,6 @@
       <c r="D636" t="s">
         <v>596</v>
       </c>
-      <c r="E636" t="s">
-        <v>766</v>
-      </c>
     </row>
     <row r="637" spans="1:5">
       <c r="A637" s="1">
@@ -13617,9 +13056,6 @@
       <c r="D637" t="s">
         <v>588</v>
       </c>
-      <c r="E637" t="s">
-        <v>789</v>
-      </c>
     </row>
     <row r="638" spans="1:5">
       <c r="A638" s="1">
@@ -13635,7 +13071,7 @@
         <v>595</v>
       </c>
       <c r="E638" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -13669,7 +13105,7 @@
         <v>594</v>
       </c>
       <c r="E640" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -13686,7 +13122,7 @@
         <v>600</v>
       </c>
       <c r="E641" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="642" spans="1:5">
@@ -13720,7 +13156,7 @@
         <v>596</v>
       </c>
       <c r="E643" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -13751,7 +13187,7 @@
         <v>596</v>
       </c>
       <c r="E645" t="s">
-        <v>866</v>
+        <v>743</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -13830,7 +13266,7 @@
         <v>600</v>
       </c>
       <c r="E650" t="s">
-        <v>867</v>
+        <v>657</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -13847,7 +13283,7 @@
         <v>588</v>
       </c>
       <c r="E651" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -13863,9 +13299,6 @@
       <c r="D652" t="s">
         <v>596</v>
       </c>
-      <c r="E652" t="s">
-        <v>868</v>
-      </c>
     </row>
     <row r="653" spans="1:5">
       <c r="A653" s="1">
@@ -13880,9 +13313,6 @@
       <c r="D653" t="s">
         <v>594</v>
       </c>
-      <c r="E653" t="s">
-        <v>869</v>
-      </c>
     </row>
     <row r="654" spans="1:5">
       <c r="A654" s="1">
@@ -13898,7 +13328,7 @@
         <v>594</v>
       </c>
       <c r="E654" t="s">
-        <v>870</v>
+        <v>677</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -13915,7 +13345,7 @@
         <v>634</v>
       </c>
       <c r="E655" t="s">
-        <v>871</v>
+        <v>744</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -13963,7 +13393,7 @@
         <v>594</v>
       </c>
       <c r="E658" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -13980,7 +13410,7 @@
         <v>594</v>
       </c>
       <c r="E659" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -14011,7 +13441,7 @@
         <v>592</v>
       </c>
       <c r="E661" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -14028,7 +13458,7 @@
         <v>607</v>
       </c>
       <c r="E662" t="s">
-        <v>872</v>
+        <v>681</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -14045,7 +13475,7 @@
         <v>588</v>
       </c>
       <c r="E663" t="s">
-        <v>873</v>
+        <v>745</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -14062,7 +13492,7 @@
         <v>598</v>
       </c>
       <c r="E664" t="s">
-        <v>844</v>
+        <v>737</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -14079,7 +13509,7 @@
         <v>596</v>
       </c>
       <c r="E665" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -14124,7 +13554,7 @@
         <v>594</v>
       </c>
       <c r="E668" t="s">
-        <v>859</v>
+        <v>655</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -14141,7 +13571,7 @@
         <v>599</v>
       </c>
       <c r="E669" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -14158,7 +13588,7 @@
         <v>595</v>
       </c>
       <c r="E670" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -14192,7 +13622,7 @@
         <v>595</v>
       </c>
       <c r="E672" t="s">
-        <v>874</v>
+        <v>746</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -14209,7 +13639,7 @@
         <v>636</v>
       </c>
       <c r="E673" t="s">
-        <v>875</v>
+        <v>659</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -14226,7 +13656,7 @@
         <v>594</v>
       </c>
       <c r="E674" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -14243,7 +13673,7 @@
         <v>588</v>
       </c>
       <c r="E675" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -14260,7 +13690,7 @@
         <v>595</v>
       </c>
       <c r="E676" t="s">
-        <v>876</v>
+        <v>747</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -14277,7 +13707,7 @@
         <v>617</v>
       </c>
       <c r="E677" t="s">
-        <v>877</v>
+        <v>711</v>
       </c>
     </row>
     <row r="678" spans="1:5">
@@ -14294,7 +13724,7 @@
         <v>617</v>
       </c>
       <c r="E678" t="s">
-        <v>734</v>
+        <v>655</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -14311,7 +13741,7 @@
         <v>637</v>
       </c>
       <c r="E679" t="s">
-        <v>878</v>
+        <v>748</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -14328,7 +13758,7 @@
         <v>596</v>
       </c>
       <c r="E680" t="s">
-        <v>879</v>
+        <v>671</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -14345,7 +13775,7 @@
         <v>596</v>
       </c>
       <c r="E681" t="s">
-        <v>880</v>
+        <v>749</v>
       </c>
     </row>
     <row r="682" spans="1:5">
@@ -14362,7 +13792,7 @@
         <v>588</v>
       </c>
       <c r="E682" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -14379,7 +13809,7 @@
         <v>588</v>
       </c>
       <c r="E683" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -14480,7 +13910,7 @@
         <v>588</v>
       </c>
       <c r="E690" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -14511,7 +13941,7 @@
         <v>588</v>
       </c>
       <c r="E692" t="s">
-        <v>881</v>
+        <v>750</v>
       </c>
     </row>
     <row r="693" spans="1:5">
@@ -14528,7 +13958,7 @@
         <v>588</v>
       </c>
       <c r="E693" t="s">
-        <v>881</v>
+        <v>750</v>
       </c>
     </row>
     <row r="694" spans="1:5">
@@ -14562,7 +13992,7 @@
         <v>588</v>
       </c>
       <c r="E695" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="696" spans="1:5">
@@ -14579,7 +14009,7 @@
         <v>588</v>
       </c>
       <c r="E696" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
     </row>
     <row r="697" spans="1:5">
@@ -14596,7 +14026,7 @@
         <v>588</v>
       </c>
       <c r="E697" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -14613,7 +14043,7 @@
         <v>588</v>
       </c>
       <c r="E698" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
     </row>
     <row r="699" spans="1:5">
@@ -14630,7 +14060,7 @@
         <v>588</v>
       </c>
       <c r="E699" t="s">
-        <v>882</v>
+        <v>751</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -14647,7 +14077,7 @@
         <v>588</v>
       </c>
       <c r="E700" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
